--- a/WebContent/upload/WineSample.xlsx
+++ b/WebContent/upload/WineSample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/22/java/eclipse-workspace/AI_Bartender/WebContent/upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/22/java/eclipse-workspace/AI_Bartender_Merge/WebContent/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBEF733-230A-0F47-A458-4B35F072FEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC74200-2AD0-F945-A9FD-DD3AA45AA890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12720" xr2:uid="{41383E15-473F-2D4B-B2C1-7B895A43BFF7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{41383E15-473F-2D4B-B2C1-7B895A43BFF7}"/>
   </bookViews>
   <sheets>
     <sheet name="wine" sheetId="1" r:id="rId1"/>
@@ -32,66 +32,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>EnName</t>
-  </si>
-  <si>
-    <t>ChName</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
     <t>ml</t>
   </si>
   <si>
-    <t>Grape</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>imgPath</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>AUSSIERES ROUGE</t>
-  </si>
-  <si>
     <t>紅酒</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡本內蘇維翁 Cabernet Sauvignon
-希哈 Syrah | Shiraz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非常開放且表達性夠的氣味，充份展現了每一種葡萄品種的香氣，並帶有雪松木、櫻桃氣味及些許辛辣味，口感圓潤柔順，有著許多水果味支撐著風味佳且成熟的單寧，餘韻留存 </t>
-  </si>
-  <si>
-    <t>已上架</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Purpose</t>
@@ -107,46 +59,89 @@
     <t>牛肉</t>
   </si>
   <si>
-    <t>imgs/FR1001.png</t>
-  </si>
-  <si>
     <t>CL1001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>商品圖片</t>
+  </si>
+  <si>
+    <t>格萊堡 標竿卡本內紅葡萄酒</t>
+  </si>
+  <si>
+    <t>瓶</t>
+  </si>
+  <si>
+    <t>已上架</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2020-02-29 23:20:00</t>
+  </si>
+  <si>
+    <t>標竿系列的高品質及風味口感向來為人稱讚。酒莊只選取最好地塊的葡萄釀造，務求帶給人們品質優異，果香濃郁，酒體均衡的佳釀。 
+帶有藍莓、黑加崙、黑醋栗及辛香料等香氣。中等略厚重的酒體，入口後可感受濃郁果香及辛香料氣息。單寧圓潤，尾韻細緻優雅。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希哈 Syrah | Shiraz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enName</t>
+  </si>
+  <si>
+    <t>chName</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>unit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>grape</t>
+  </si>
+  <si>
+    <t>feature</t>
   </si>
   <si>
     <t>createUser</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>updateUser</t>
+  </si>
+  <si>
+    <t>updateTime</t>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>createTime</t>
+    <t>BENCHMARK CABERNET SAUVIGNON</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>updateUser</t>
+    <t>Australia</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>updateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-02-29 23:20:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉菲奧希耶 精選紅酒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FR1001</t>
+    <t>AU1001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -190,12 +185,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
@@ -209,8 +198,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +216,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -238,56 +238,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -305,6 +284,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF6360B-7166-3940-A204-19FE44E4C2C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="254000"/>
+          <a:ext cx="1244600" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2609B207-07CA-5346-9BF3-7447AEDA7D12}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -613,151 +641,196 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="24.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="12.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="2"/>
-    <col min="14" max="14" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="2"/>
-    <col min="19" max="19" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="39.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="13" customFormat="1">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:17" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="N1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" customFormat="1" ht="100" customHeight="1">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="12" t="s">
+      <c r="F2">
+        <v>14.5</v>
+      </c>
+      <c r="G2">
+        <v>750</v>
+      </c>
+      <c r="H2" s="9">
+        <v>535</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1">
-        <v>600</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="H2" s="8">
-        <v>750</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="16"/>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{9B916B60-E64A-4ED4-956F-13CCBD56DA23}">
+  <dataValidations count="15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的管理者帳號" error="(僅允許輸入下拉選單內的值)" prompt="請輸入管理者帳號" sqref="N2:N1048576 P2:P1048576" xr:uid="{6601C719-0F30-814F-8BB5-AAFCCB1188E8}">
+      <formula1>"admin"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確商品酒精濃度" error="僅限數值格式(含小數)" prompt="請輸入商品的酒精濃度" sqref="F2:F1048576" xr:uid="{ED39A8B7-8107-2A43-A089-D4169D1EB7F4}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的商品ml數" error="僅限數值格式(正整數)" prompt="請輸入商品的ml數" sqref="G2:G1048576" xr:uid="{5D5133C7-3572-3343-824A-C4762122051D}">
+      <formula1>0</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的商品價格" error="僅限數值格式(正整數)" prompt="請輸入商品價格" sqref="H2:H1048576" xr:uid="{85605AEC-0CBD-664C-B0AD-8125D92C78D4}">
+      <formula1>0</formula1>
+      <formula2>999999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的商品狀態" error="(僅允許輸入下拉選單內的值)" prompt="請輸入商品狀態" sqref="M2:M1048576" xr:uid="{9F85A668-562B-7C46-B973-CFDCE07A4CD3}">
       <formula1>"已上架,已下架,完售,缺貨"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請選擇正確的商品酒種" error="(僅允許輸入下拉選單內的值)" prompt="請選擇商品酒種" sqref="E2:E1048576" xr:uid="{BEE634BB-8F37-FA41-BED5-F1E223A24BE4}">
+      <formula1>"紅酒,白酒"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的商品編號" error="前兩碼需為國家名稱的前兩碼，後四碼為流水號" promptTitle="請輸入商品編號" prompt="前兩碼需為國家名稱的前兩碼_x000a_後四碼為流水號" sqref="B2:B1048576" xr:uid="{D5F9CEC1-4B8B-2943-8D0D-837C7E8E6340}">
+      <formula1>6</formula1>
+      <formula2>6</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的商品英文名" error="(最多僅能輸入100字)" promptTitle="請輸入商品英文名" prompt="(最多僅能輸入100字)" sqref="C2:C1048576" xr:uid="{DC40B567-3D5F-8741-89EC-AFB38EEFF164}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的商品中文名" error="(最多僅能輸入100字)" promptTitle="請輸入商品中文名" prompt="(最多僅能輸入100字)" sqref="D2:D1048576" xr:uid="{8EF3439B-257D-7548-B096-65997DED0C9B}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的商品的銷售單位" prompt="請輸入商品的銷售單位" sqref="I2:I1048576" xr:uid="{923A787B-E790-EC4B-A248-F4BCC77111C5}">
+      <formula1>0</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的商品國家名稱(英文)" error="(僅限50字)" prompt="請輸入商品的國家名稱(英文)" sqref="J2:J1048576" xr:uid="{96A7B619-4F8B-244B-88E5-B35AC3D908E8}">
+      <formula1>0</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的商品品種" prompt="請輸入商品的品種" sqref="K2:K1048576" xr:uid="{FFF87AE1-E915-7344-A51C-2E0E4CFCE34E}">
+      <formula1>0</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="請輸入商品的特色" sqref="L2:L1048576" xr:uid="{A37B7C13-82E8-EF45-B685-3D89E2DD19F5}">
+      <formula1>0</formula1>
+      <formula2>2500</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="請輸入目前的日期與時間_x000a_格式為 西元年-月份-日期 時:分:秒" sqref="O2:O1048576 Q2:Q1048576" xr:uid="{FFEBCACB-96B0-D44A-A722-F8FABDA226EB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="請放入商品圖片在格子內_x000a_格子的高度與寬度可自行調整" sqref="A2:A1048576" xr:uid="{C85E0D9E-1931-B547-A7E6-0E2223F91438}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B2803F-6D06-1F41-A678-0AD5D0A6291E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
@@ -765,35 +838,44 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" s="6" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>20</v>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的商品編號" error="前兩碼需為國家名稱的前兩碼，後四碼為流水號" promptTitle="請輸入商品編號" prompt="前兩碼需為國家名稱的前兩碼_x000a_後四碼為流水號" sqref="A2:A1048576" xr:uid="{D1109E47-D0F4-C44C-9B7F-81C423E413BB}">
+      <formula1>6</formula1>
+      <formula2>6</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的侍酒師提問內的購買目的" error="(最多僅能輸入100字)" promptTitle="請輸入侍酒師提問內的購買目的" prompt="若有兩以上的目的皆可連結至此商品，則在兩個不同目的之間加入&quot;/&quot;符號_x000a_(最多僅能輸入100字)" sqref="B2:B1048576" xr:uid="{D3E227BD-FBFC-4845-B9D0-7C9CC7DEA2CB}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="請輸入正確的侍酒師提問內的搭配餐點" error="(最多僅能輸入25字)" promptTitle="請輸入侍酒師提問內的搭配餐點" prompt="(最多僅能輸入25字)" sqref="C2:C1048576" xr:uid="{90A0D4E1-EA7D-3E49-B4AA-6E96CDA77D9D}">
+      <formula1>0</formula1>
+      <formula2>25</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>